--- a/Code/Results/Cases/Case_8_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8089242225543387</v>
+        <v>0.7868196141632211</v>
       </c>
       <c r="C2">
-        <v>0.1477605770964061</v>
+        <v>0.2130880304437284</v>
       </c>
       <c r="D2">
-        <v>0.1240056129536171</v>
+        <v>0.07451030321266883</v>
       </c>
       <c r="E2">
-        <v>0.0196732561637214</v>
+        <v>0.02468378959619866</v>
       </c>
       <c r="F2">
-        <v>2.706977187929184</v>
+        <v>1.802586326812332</v>
       </c>
       <c r="G2">
-        <v>0.0008498334728679299</v>
+        <v>0.05175827710207415</v>
       </c>
       <c r="H2">
-        <v>0.02677746261401226</v>
+        <v>0.01491601151227301</v>
       </c>
       <c r="I2">
-        <v>0.03646992373453006</v>
+        <v>0.01776452857682154</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.008843703398966</v>
+        <v>1.250327293455662</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4921444055369193</v>
       </c>
       <c r="M2">
-        <v>0.8947860634220319</v>
+        <v>0.4439376345847279</v>
       </c>
       <c r="N2">
-        <v>0.163928846828874</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1936549863747814</v>
+        <v>0.9658801730778066</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1854819907624119</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1935446792039386</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7045351458298228</v>
+        <v>0.6856348741198985</v>
       </c>
       <c r="C3">
-        <v>0.1266681547472643</v>
+        <v>0.1835842818524611</v>
       </c>
       <c r="D3">
-        <v>0.1197577236747556</v>
+        <v>0.07241106555552923</v>
       </c>
       <c r="E3">
-        <v>0.01693126950983537</v>
+        <v>0.0226360427923824</v>
       </c>
       <c r="F3">
-        <v>2.483502453458954</v>
+        <v>1.673363037708427</v>
       </c>
       <c r="G3">
-        <v>0.0008544809406502294</v>
+        <v>0.06073100828377109</v>
       </c>
       <c r="H3">
-        <v>0.03246472739076989</v>
+        <v>0.01834808421242906</v>
       </c>
       <c r="I3">
-        <v>0.0439386164301121</v>
+        <v>0.02167027132250787</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.861721238382074</v>
+        <v>1.182270852433177</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.476857134654999</v>
       </c>
       <c r="M3">
-        <v>0.777243640017474</v>
+        <v>0.4100511280115953</v>
       </c>
       <c r="N3">
-        <v>0.1433551819998442</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1690460051545593</v>
+        <v>0.8390467161288768</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1640883972786824</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1689844700465386</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6405753430710774</v>
+        <v>0.6234009176447159</v>
       </c>
       <c r="C4">
-        <v>0.1140735637307841</v>
+        <v>0.1657368905174081</v>
       </c>
       <c r="D4">
-        <v>0.1170050192703727</v>
+        <v>0.07104412443486963</v>
       </c>
       <c r="E4">
-        <v>0.01527901552209077</v>
+        <v>0.02137341355524924</v>
       </c>
       <c r="F4">
-        <v>2.345725317308222</v>
+        <v>1.593079415103674</v>
       </c>
       <c r="G4">
-        <v>0.0008574309092273472</v>
+        <v>0.06679558483861436</v>
       </c>
       <c r="H4">
-        <v>0.03635645630851192</v>
+        <v>0.02071427572089679</v>
       </c>
       <c r="I4">
-        <v>0.04907141398807191</v>
+        <v>0.02439762833465942</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.770442308747533</v>
+        <v>1.139470439825558</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.466726729848105</v>
       </c>
       <c r="M4">
-        <v>0.7055974542616354</v>
+        <v>0.3897690056601562</v>
       </c>
       <c r="N4">
-        <v>0.1307682315005749</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1539621945720739</v>
+        <v>0.7613634766077553</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.150972330756403</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1539029567019767</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6143625488436157</v>
+        <v>0.5978608681927255</v>
       </c>
       <c r="C5">
-        <v>0.1092663493245851</v>
+        <v>0.1587656687356969</v>
       </c>
       <c r="D5">
-        <v>0.1156525761672853</v>
+        <v>0.07040941374762877</v>
       </c>
       <c r="E5">
-        <v>0.01459077039480317</v>
+        <v>0.02084091516535125</v>
       </c>
       <c r="F5">
-        <v>2.285162888781571</v>
+        <v>1.557259086393344</v>
       </c>
       <c r="G5">
-        <v>0.0008586689480085343</v>
+        <v>0.06942396227116809</v>
       </c>
       <c r="H5">
-        <v>0.03805445253643747</v>
+        <v>0.02175008497884323</v>
       </c>
       <c r="I5">
-        <v>0.05141568815315578</v>
+        <v>0.02570413916829661</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.72939520703045</v>
+        <v>1.119494261975646</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4614791302836068</v>
       </c>
       <c r="M5">
-        <v>0.6767381224661762</v>
+        <v>0.3808641340525156</v>
       </c>
       <c r="N5">
-        <v>0.1256779267710613</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1478090981204616</v>
+        <v>0.7299248510497591</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.145653909716259</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1477465096749704</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6097983791263744</v>
+        <v>0.5934367950594321</v>
       </c>
       <c r="C6">
-        <v>0.1087721705666098</v>
+        <v>0.1579065946322942</v>
       </c>
       <c r="D6">
-        <v>0.1151891912917655</v>
+        <v>0.07023303325516395</v>
       </c>
       <c r="E6">
-        <v>0.01445068486196632</v>
+        <v>0.02073280436237646</v>
       </c>
       <c r="F6">
-        <v>2.269894222856777</v>
+        <v>1.547801755910243</v>
       </c>
       <c r="G6">
-        <v>0.0008588897332340483</v>
+        <v>0.06989545788845986</v>
       </c>
       <c r="H6">
-        <v>0.03836077085975997</v>
+        <v>0.021936515758888</v>
       </c>
       <c r="I6">
-        <v>0.05196668643524394</v>
+        <v>0.02607527007374699</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.71816169545302</v>
+        <v>1.113380027096689</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4594597396509386</v>
       </c>
       <c r="M6">
-        <v>0.6722235467069169</v>
+        <v>0.3784515024511776</v>
       </c>
       <c r="N6">
-        <v>0.124870248370641</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1467743376077344</v>
+        <v>0.7249261793525648</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1447995110148526</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1467131831815287</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6396355414113657</v>
+        <v>0.6236089488770631</v>
       </c>
       <c r="C7">
-        <v>0.1148265857332404</v>
+        <v>0.1645314886092564</v>
       </c>
       <c r="D7">
-        <v>0.1163397284826395</v>
+        <v>0.07053666173764217</v>
       </c>
       <c r="E7">
-        <v>0.01519767361568558</v>
+        <v>0.02137903887603265</v>
       </c>
       <c r="F7">
-        <v>2.330675501588146</v>
+        <v>1.566084436125195</v>
       </c>
       <c r="G7">
-        <v>0.0008574845790957675</v>
+        <v>0.06758674045376312</v>
       </c>
       <c r="H7">
-        <v>0.03642781611008683</v>
+        <v>0.02079902780561005</v>
       </c>
       <c r="I7">
-        <v>0.04950167319848831</v>
+        <v>0.02486505626065849</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.757841857178434</v>
+        <v>1.120010757536711</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4589105902111825</v>
       </c>
       <c r="M7">
-        <v>0.7059456787177965</v>
+        <v>0.3830531695301005</v>
       </c>
       <c r="N7">
-        <v>0.1308009836160124</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1538425442921358</v>
+        <v>0.7599264225479487</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1506517006246142</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1538492479006841</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7720994304291082</v>
+        <v>0.7547865101755917</v>
       </c>
       <c r="C8">
-        <v>0.1414956772491252</v>
+        <v>0.1974778239871853</v>
       </c>
       <c r="D8">
-        <v>0.1217159919469033</v>
+        <v>0.0726857916189152</v>
       </c>
       <c r="E8">
-        <v>0.01862248990333359</v>
+        <v>0.02413035858923696</v>
       </c>
       <c r="F8">
-        <v>2.61111243648034</v>
+        <v>1.689844341790717</v>
       </c>
       <c r="G8">
-        <v>0.000851463628509227</v>
+        <v>0.05762359753014934</v>
       </c>
       <c r="H8">
-        <v>0.02870871911398676</v>
+        <v>0.01619598136242872</v>
       </c>
       <c r="I8">
-        <v>0.03940164262739287</v>
+        <v>0.01968241406403859</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.942296477759385</v>
+        <v>1.179169221639619</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4684055680001578</v>
       </c>
       <c r="M8">
-        <v>0.8551044605538891</v>
+        <v>0.4149567399316538</v>
       </c>
       <c r="N8">
-        <v>0.1569584136816999</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1851124947732892</v>
+        <v>0.9174372661544794</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1771102952981138</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.185229801654625</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.034466560423652</v>
+        <v>1.008493873944531</v>
       </c>
       <c r="C9">
-        <v>0.1955573874894156</v>
+        <v>0.2699227060471117</v>
       </c>
       <c r="D9">
-        <v>0.1322638692359028</v>
+        <v>0.07761083795354429</v>
       </c>
       <c r="E9">
-        <v>0.02578895757076083</v>
+        <v>0.02936079507726408</v>
       </c>
       <c r="F9">
-        <v>3.183136808103598</v>
+        <v>2.003305476156598</v>
       </c>
       <c r="G9">
-        <v>0.0008403377932347468</v>
+        <v>0.03866491263515304</v>
       </c>
       <c r="H9">
-        <v>0.01684763907225639</v>
+        <v>0.009130638895305493</v>
       </c>
       <c r="I9">
-        <v>0.0235731931462686</v>
+        <v>0.01143707951121975</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.318620263976953</v>
+        <v>1.342199620719541</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5031516029851204</v>
       </c>
       <c r="M9">
-        <v>1.151265155972737</v>
+        <v>0.5008140371008736</v>
       </c>
       <c r="N9">
-        <v>0.2085613119637912</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2468127590985461</v>
+        <v>1.233064942464097</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2302714113392739</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2466594168250182</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.228773761880717</v>
+        <v>1.201910571587774</v>
       </c>
       <c r="C10">
-        <v>0.2403860324705818</v>
+        <v>0.3150977759345608</v>
       </c>
       <c r="D10">
-        <v>0.1359105953428745</v>
+        <v>0.07966044695193819</v>
       </c>
       <c r="E10">
-        <v>0.02943605288210627</v>
+        <v>0.03209543114736313</v>
       </c>
       <c r="F10">
-        <v>3.524819791641562</v>
+        <v>2.089105929203257</v>
       </c>
       <c r="G10">
-        <v>0.0008327854358365979</v>
+        <v>0.03667918586058327</v>
       </c>
       <c r="H10">
-        <v>0.0109382961798028</v>
+        <v>0.005906844062189442</v>
       </c>
       <c r="I10">
-        <v>0.0154645787976655</v>
+        <v>0.007673910413895868</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.527351735764441</v>
+        <v>1.359297082993749</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4903845456576619</v>
       </c>
       <c r="M10">
-        <v>1.376851849809725</v>
+        <v>0.5279805421838333</v>
       </c>
       <c r="N10">
-        <v>0.2345745106397032</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2871869055775207</v>
+        <v>1.459714656881658</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2546750126535215</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2869914841626056</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.318949597154472</v>
+        <v>1.309778281511655</v>
       </c>
       <c r="C11">
-        <v>0.2823543957215691</v>
+        <v>0.3292086432280428</v>
       </c>
       <c r="D11">
-        <v>0.1149603278140034</v>
+        <v>0.08472524014234395</v>
       </c>
       <c r="E11">
-        <v>0.01986148175164937</v>
+        <v>0.02477537696406173</v>
       </c>
       <c r="F11">
-        <v>3.067102160590707</v>
+        <v>1.639247836048483</v>
       </c>
       <c r="G11">
-        <v>0.0008309399846898689</v>
+        <v>0.07027265306160047</v>
       </c>
       <c r="H11">
-        <v>0.02942405257291725</v>
+        <v>0.02473742084368524</v>
       </c>
       <c r="I11">
-        <v>0.01455798800051955</v>
+        <v>0.007816122311059104</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.124707907566673</v>
+        <v>1.022541251294207</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3647995310433458</v>
       </c>
       <c r="M11">
-        <v>1.512567355800314</v>
+        <v>0.4027740117788312</v>
       </c>
       <c r="N11">
-        <v>0.1508600677129763</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2607327000475763</v>
+        <v>1.570188184644849</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.163441139129894</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2613192167971974</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.355168325762918</v>
+        <v>1.357701437088053</v>
       </c>
       <c r="C12">
-        <v>0.3081944802468684</v>
+        <v>0.3373751319309406</v>
       </c>
       <c r="D12">
-        <v>0.1039486999575692</v>
+        <v>0.09565504211970932</v>
       </c>
       <c r="E12">
-        <v>0.01792802577033159</v>
+        <v>0.02362524168222446</v>
       </c>
       <c r="F12">
-        <v>2.658940807833545</v>
+        <v>1.344055985081866</v>
       </c>
       <c r="G12">
-        <v>0.0008307571838772522</v>
+        <v>0.09507137182232128</v>
       </c>
       <c r="H12">
-        <v>0.06863088755230251</v>
+        <v>0.06383348429108082</v>
       </c>
       <c r="I12">
-        <v>0.01455762316928766</v>
+        <v>0.007841299430191739</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.791570834913969</v>
+        <v>0.815742653730112</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2915408160009321</v>
       </c>
       <c r="M12">
-        <v>1.579591328547394</v>
+        <v>0.3218055239225208</v>
       </c>
       <c r="N12">
-        <v>0.09119885701632313</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2312668078733573</v>
+        <v>1.621617819811974</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1001897623459627</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2322700557062909</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.350613977485665</v>
+        <v>1.357580474651542</v>
       </c>
       <c r="C13">
-        <v>0.3240412995067459</v>
+        <v>0.3480500462798375</v>
       </c>
       <c r="D13">
-        <v>0.09880865615020618</v>
+        <v>0.1057641742380113</v>
       </c>
       <c r="E13">
-        <v>0.02152266619239906</v>
+        <v>0.02768356511822923</v>
       </c>
       <c r="F13">
-        <v>2.244129870147631</v>
+        <v>1.145959438597004</v>
       </c>
       <c r="G13">
-        <v>0.0008318968905642876</v>
+        <v>0.0901742340734657</v>
       </c>
       <c r="H13">
-        <v>0.1255454655871375</v>
+        <v>0.1202159380571999</v>
       </c>
       <c r="I13">
-        <v>0.01574201051758628</v>
+        <v>0.008290158937553471</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.474701331064139</v>
+        <v>0.6845901772088396</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2473705346441868</v>
       </c>
       <c r="M13">
-        <v>1.598020514549148</v>
+        <v>0.2677150571392417</v>
       </c>
       <c r="N13">
-        <v>0.04700448630447696</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1979608503789336</v>
+        <v>1.635803888694284</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.0546798173755505</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.198996181583972</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.328828443394599</v>
+        <v>1.335614176410445</v>
       </c>
       <c r="C14">
-        <v>0.3309883610710926</v>
+        <v>0.3570425910934603</v>
       </c>
       <c r="D14">
-        <v>0.09862656167482697</v>
+        <v>0.1113863226383458</v>
       </c>
       <c r="E14">
-        <v>0.02739528461814089</v>
+        <v>0.03405250291311646</v>
       </c>
       <c r="F14">
-        <v>1.953524854002552</v>
+        <v>1.040777192172484</v>
       </c>
       <c r="G14">
-        <v>0.0008332878750209353</v>
+        <v>0.07447396424421271</v>
       </c>
       <c r="H14">
-        <v>0.1759992695346</v>
+        <v>0.1700987348437053</v>
       </c>
       <c r="I14">
-        <v>0.01725827815910375</v>
+        <v>0.008935622646611741</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.263568354609809</v>
+        <v>0.6186533029182044</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2260902854728641</v>
       </c>
       <c r="M14">
-        <v>1.589229982008959</v>
+        <v>0.2392969775586842</v>
       </c>
       <c r="N14">
-        <v>0.02555607897339129</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1733398138856224</v>
+        <v>1.628926336593963</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03286432443867326</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.174236267366652</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.314542919237965</v>
+        <v>1.319915541920551</v>
       </c>
       <c r="C15">
-        <v>0.330756242207741</v>
+        <v>0.3598325693536992</v>
       </c>
       <c r="D15">
-        <v>0.09902083976879439</v>
+        <v>0.1115730489488413</v>
       </c>
       <c r="E15">
-        <v>0.02911589477035115</v>
+        <v>0.03607653676276534</v>
       </c>
       <c r="F15">
-        <v>1.874453114427212</v>
+        <v>1.024581240035701</v>
       </c>
       <c r="G15">
-        <v>0.0008339400955845606</v>
+        <v>0.06646059829433781</v>
       </c>
       <c r="H15">
-        <v>0.189013152504188</v>
+        <v>0.1828504478517772</v>
       </c>
       <c r="I15">
-        <v>0.01808321829763049</v>
+        <v>0.009372054307632993</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.209032391475141</v>
+        <v>0.6093297304903587</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2234942395275539</v>
       </c>
       <c r="M15">
-        <v>1.57681074196438</v>
+        <v>0.234705349131886</v>
       </c>
       <c r="N15">
-        <v>0.02152522572154858</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1664099157063603</v>
+        <v>1.619049635362302</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.02888014114131643</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1672141785605952</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.231090469829041</v>
+        <v>1.225184609942659</v>
       </c>
       <c r="C16">
-        <v>0.3078258901199433</v>
+        <v>0.3580012397794121</v>
       </c>
       <c r="D16">
-        <v>0.09835465600841076</v>
+        <v>0.09960771454993989</v>
       </c>
       <c r="E16">
-        <v>0.02674487928559977</v>
+        <v>0.03521477921049865</v>
       </c>
       <c r="F16">
-        <v>1.813967117084033</v>
+        <v>1.118573121544742</v>
       </c>
       <c r="G16">
-        <v>0.0008369375604093349</v>
+        <v>0.04015866462018458</v>
       </c>
       <c r="H16">
-        <v>0.1787940523489482</v>
+        <v>0.1713792830119871</v>
       </c>
       <c r="I16">
-        <v>0.02143513464508562</v>
+        <v>0.0108663906532156</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.185614047103002</v>
+        <v>0.6756233842417103</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2496801351475035</v>
       </c>
       <c r="M16">
-        <v>1.474949983589681</v>
+        <v>0.2570462538919394</v>
       </c>
       <c r="N16">
-        <v>0.0210415156739483</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1568697667278194</v>
+        <v>1.534299476860639</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.02974438516180022</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1571958747674103</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.178807976173061</v>
+        <v>1.166400616254208</v>
       </c>
       <c r="C17">
-        <v>0.2866720820260014</v>
+        <v>0.3480749736573898</v>
       </c>
       <c r="D17">
-        <v>0.09733727596520936</v>
+        <v>0.09051284079594524</v>
       </c>
       <c r="E17">
-        <v>0.02120990898956698</v>
+        <v>0.03000365609809563</v>
       </c>
       <c r="F17">
-        <v>1.917215277750572</v>
+        <v>1.238435927362644</v>
       </c>
       <c r="G17">
-        <v>0.0008385141421400899</v>
+        <v>0.03539315639745944</v>
       </c>
       <c r="H17">
-        <v>0.1423922285658108</v>
+        <v>0.1343152238669916</v>
       </c>
       <c r="I17">
-        <v>0.02327527192550072</v>
+        <v>0.01173922527653204</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.27504192504378</v>
+        <v>0.7600820178683563</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2818133696537792</v>
       </c>
       <c r="M17">
-        <v>1.401828755469182</v>
+        <v>0.2875661563315361</v>
       </c>
       <c r="N17">
-        <v>0.03029366356953034</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1623125746623586</v>
+        <v>1.470170937188982</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0405957054522581</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1624128825067288</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.14775170662196</v>
+        <v>1.129571045356528</v>
       </c>
       <c r="C18">
-        <v>0.2641897940769127</v>
+        <v>0.3340293553756908</v>
       </c>
       <c r="D18">
-        <v>0.09906528352744992</v>
+        <v>0.08254908277746154</v>
       </c>
       <c r="E18">
-        <v>0.0155470029798348</v>
+        <v>0.02364227069647384</v>
       </c>
       <c r="F18">
-        <v>2.197305364730227</v>
+        <v>1.43378970831246</v>
       </c>
       <c r="G18">
-        <v>0.0008389357304123121</v>
+        <v>0.03429386277803337</v>
       </c>
       <c r="H18">
-        <v>0.0897029249403829</v>
+        <v>0.08153816141081194</v>
       </c>
       <c r="I18">
-        <v>0.02337853882944163</v>
+        <v>0.0116242353604683</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.495521160948286</v>
+        <v>0.8975065242287741</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3324984365081107</v>
       </c>
       <c r="M18">
-        <v>1.344593445166481</v>
+        <v>0.339419417311035</v>
       </c>
       <c r="N18">
-        <v>0.05720432296907774</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1820909203222563</v>
+        <v>1.420251849463511</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.07008951792614226</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1820396491891181</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.134843057681735</v>
+        <v>1.111098895130141</v>
       </c>
       <c r="C19">
-        <v>0.2448092087365836</v>
+        <v>0.3217010385793344</v>
       </c>
       <c r="D19">
-        <v>0.1072954982983179</v>
+        <v>0.07818299976318244</v>
       </c>
       <c r="E19">
-        <v>0.01504962658379583</v>
+        <v>0.02149251429374696</v>
       </c>
       <c r="F19">
-        <v>2.603355893248704</v>
+        <v>1.684822781803106</v>
       </c>
       <c r="G19">
-        <v>0.000838339259117242</v>
+        <v>0.03325525185060485</v>
       </c>
       <c r="H19">
-        <v>0.04321431354574656</v>
+        <v>0.03553122105061846</v>
       </c>
       <c r="I19">
-        <v>0.02260001052145544</v>
+        <v>0.01137477349672533</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.815512053243552</v>
+        <v>1.076891281725132</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3976424141098249</v>
       </c>
       <c r="M19">
-        <v>1.306323365376613</v>
+        <v>0.4083889357434529</v>
       </c>
       <c r="N19">
-        <v>0.1090388396669866</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2133489346610098</v>
+        <v>1.388709642217549</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1254846477272125</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2131663033443161</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.175628854155804</v>
+        <v>1.145640967370213</v>
       </c>
       <c r="C20">
-        <v>0.2311072179072937</v>
+        <v>0.3129663564932912</v>
       </c>
       <c r="D20">
-        <v>0.1329396337922049</v>
+        <v>0.07926849126286672</v>
       </c>
       <c r="E20">
-        <v>0.02813546311461046</v>
+        <v>0.03091348214074596</v>
       </c>
       <c r="F20">
-        <v>3.387632632557882</v>
+        <v>2.095275802051475</v>
       </c>
       <c r="G20">
-        <v>0.0008348532690640619</v>
+        <v>0.03154365331127185</v>
       </c>
       <c r="H20">
-        <v>0.01241389932019654</v>
+        <v>0.006621557655107413</v>
       </c>
       <c r="I20">
-        <v>0.01842837176756529</v>
+        <v>0.009542727956540098</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.432775817161044</v>
+        <v>1.370779609381742</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.499343466934917</v>
       </c>
       <c r="M20">
-        <v>1.319642704601421</v>
+        <v>0.5270183300928011</v>
       </c>
       <c r="N20">
-        <v>0.2275024236357268</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2762159083726985</v>
+        <v>1.408248115515107</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2491469447558217</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2758707007313959</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.32540437344764</v>
+        <v>1.313658820291636</v>
       </c>
       <c r="C21">
-        <v>0.2626669819631928</v>
+        <v>0.3084920453171378</v>
       </c>
       <c r="D21">
-        <v>0.1406516303384713</v>
+        <v>0.08115128025803031</v>
       </c>
       <c r="E21">
-        <v>0.03399818198661464</v>
+        <v>0.0368932713232617</v>
       </c>
       <c r="F21">
-        <v>3.76859075845573</v>
+        <v>1.931397553844874</v>
       </c>
       <c r="G21">
-        <v>0.0008288780050824673</v>
+        <v>0.09015300864633247</v>
       </c>
       <c r="H21">
-        <v>0.007896382399725177</v>
+        <v>0.004337106255984269</v>
       </c>
       <c r="I21">
-        <v>0.01270703810658524</v>
+        <v>0.00729865279578501</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.689489639608254</v>
+        <v>1.237414617680429</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4388716691660548</v>
       </c>
       <c r="M21">
-        <v>1.48861983454529</v>
+        <v>0.4897247661275799</v>
       </c>
       <c r="N21">
-        <v>0.2668449038254721</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3155293442917397</v>
+        <v>1.545502997765283</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2816414636213125</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3161064712965143</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.424815908523868</v>
+        <v>1.427210671519674</v>
       </c>
       <c r="C22">
-        <v>0.2839789852891101</v>
+        <v>0.3040141697939305</v>
       </c>
       <c r="D22">
-        <v>0.1448479688744264</v>
+        <v>0.08518483533809729</v>
       </c>
       <c r="E22">
-        <v>0.03707437964280125</v>
+        <v>0.04050031173922797</v>
       </c>
       <c r="F22">
-        <v>4.000889479047487</v>
+        <v>1.802969560372787</v>
       </c>
       <c r="G22">
-        <v>0.0008250904577750114</v>
+        <v>0.1769794815984156</v>
       </c>
       <c r="H22">
-        <v>0.005672714682732449</v>
+        <v>0.003232262864177882</v>
       </c>
       <c r="I22">
-        <v>0.009379537816228023</v>
+        <v>0.005701504766582488</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.843343153253585</v>
+        <v>1.137680851291023</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3967846421488304</v>
       </c>
       <c r="M22">
-        <v>1.601091359451573</v>
+        <v>0.4589563651211819</v>
       </c>
       <c r="N22">
-        <v>0.2862500155909373</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.338715861309943</v>
+        <v>1.633276555504352</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2956851525833599</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3399569579340422</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.372483004931752</v>
+        <v>1.364180386789116</v>
       </c>
       <c r="C23">
-        <v>0.2715556995886175</v>
+        <v>0.3102338694554874</v>
       </c>
       <c r="D23">
-        <v>0.1433692804133244</v>
+        <v>0.08230138226698358</v>
       </c>
       <c r="E23">
-        <v>0.03551932801511626</v>
+        <v>0.03837616621665596</v>
       </c>
       <c r="F23">
-        <v>3.893893823751142</v>
+        <v>1.919200863697512</v>
       </c>
       <c r="G23">
-        <v>0.0008270673584954043</v>
+        <v>0.112017579799911</v>
       </c>
       <c r="H23">
-        <v>0.006788639471447477</v>
+        <v>0.003759275772742821</v>
       </c>
       <c r="I23">
-        <v>0.01071080367763955</v>
+        <v>0.006069246985666688</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.775659736829027</v>
+        <v>1.222939401563451</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4301026879741841</v>
       </c>
       <c r="M23">
-        <v>1.540126824399124</v>
+        <v>0.4884544610228261</v>
       </c>
       <c r="N23">
-        <v>0.2757595842613654</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3263812895957869</v>
+        <v>1.590268832223614</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2889636407254415</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3271017519460955</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.174137596748011</v>
+        <v>1.143252048100521</v>
       </c>
       <c r="C24">
-        <v>0.227397204033835</v>
+        <v>0.3100680160067668</v>
       </c>
       <c r="D24">
-        <v>0.1363451579380488</v>
+        <v>0.07973686078152475</v>
       </c>
       <c r="E24">
-        <v>0.02966090999594151</v>
+        <v>0.03211139135986496</v>
       </c>
       <c r="F24">
-        <v>3.463100507150529</v>
+        <v>2.14397993671875</v>
       </c>
       <c r="G24">
-        <v>0.0008347479894724354</v>
+        <v>0.03121170088167347</v>
       </c>
       <c r="H24">
-        <v>0.0120655821039822</v>
+        <v>0.006355189507045611</v>
       </c>
       <c r="I24">
-        <v>0.01771530002536714</v>
+        <v>0.008825516963255176</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.496195656874704</v>
+        <v>1.408264327060166</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5130232800172934</v>
       </c>
       <c r="M24">
-        <v>1.312885597268661</v>
+        <v>0.5413682759118004</v>
       </c>
       <c r="N24">
-        <v>0.2365265615914183</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2798210808268422</v>
+        <v>1.402506039037945</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2587187019519348</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2794311131355869</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.962129764744958</v>
+        <v>0.9374394406570445</v>
       </c>
       <c r="C25">
-        <v>0.1820218934962128</v>
+        <v>0.2543366944799601</v>
       </c>
       <c r="D25">
-        <v>0.1283772371894258</v>
+        <v>0.07642605673953407</v>
       </c>
       <c r="E25">
-        <v>0.02366772636804804</v>
+        <v>0.02774936916928628</v>
       </c>
       <c r="F25">
-        <v>3.002687297296745</v>
+        <v>1.926246982117107</v>
       </c>
       <c r="G25">
-        <v>0.0008433331040883832</v>
+        <v>0.0419526524123186</v>
       </c>
       <c r="H25">
-        <v>0.01973202396626306</v>
+        <v>0.01078731578391171</v>
       </c>
       <c r="I25">
-        <v>0.02794806284138751</v>
+        <v>0.01392658061237562</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.195568096432652</v>
+        <v>1.301833167142817</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4954530239873947</v>
       </c>
       <c r="M25">
-        <v>1.071795082706075</v>
+        <v>0.4782190015678296</v>
       </c>
       <c r="N25">
-        <v>0.1947130785181201</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2299992641946176</v>
+        <v>1.150875673385798</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2164762848113213</v>
       </c>
       <c r="Q25">
+        <v>0.2298838145746984</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
